--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N2">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q2">
-        <v>280.9632316368341</v>
+        <v>305.5717133349096</v>
       </c>
       <c r="R2">
-        <v>280.9632316368341</v>
+        <v>2750.145420014187</v>
       </c>
       <c r="S2">
-        <v>0.01076560585933148</v>
+        <v>0.0103937912496811</v>
       </c>
       <c r="T2">
-        <v>0.01076560585933148</v>
+        <v>0.01039379124968111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N3">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q3">
-        <v>1463.863738010122</v>
+        <v>1482.251415986256</v>
       </c>
       <c r="R3">
-        <v>1463.863738010122</v>
+        <v>13340.2627438763</v>
       </c>
       <c r="S3">
-        <v>0.0560905423224731</v>
+        <v>0.05041766343215154</v>
       </c>
       <c r="T3">
-        <v>0.0560905423224731</v>
+        <v>0.05041766343215156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N4">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q4">
-        <v>368.6268749145545</v>
+        <v>397.3099046171016</v>
       </c>
       <c r="R4">
-        <v>368.6268749145545</v>
+        <v>3575.789141553915</v>
       </c>
       <c r="S4">
-        <v>0.01412459424447663</v>
+        <v>0.01351419660200952</v>
       </c>
       <c r="T4">
-        <v>0.01412459424447663</v>
+        <v>0.01351419660200953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H5">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N5">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q5">
-        <v>274.5861939525644</v>
+        <v>374.4230831584923</v>
       </c>
       <c r="R5">
-        <v>274.5861939525644</v>
+        <v>3369.807748426431</v>
       </c>
       <c r="S5">
-        <v>0.01052125832012148</v>
+        <v>0.01273571864011523</v>
       </c>
       <c r="T5">
-        <v>0.01052125832012148</v>
+        <v>0.01273571864011524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H6">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N6">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q6">
-        <v>2866.019900349058</v>
+        <v>3241.81867737313</v>
       </c>
       <c r="R6">
-        <v>2866.019900349058</v>
+        <v>29176.36809635817</v>
       </c>
       <c r="S6">
-        <v>0.1098166491480284</v>
+        <v>0.110268016087614</v>
       </c>
       <c r="T6">
-        <v>0.1098166491480284</v>
+        <v>0.1102680160876141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N7">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q7">
-        <v>336.3104378622547</v>
+        <v>366.8696064932616</v>
       </c>
       <c r="R7">
-        <v>336.3104378622547</v>
+        <v>3301.826458439355</v>
       </c>
       <c r="S7">
-        <v>0.0128863324902388</v>
+        <v>0.01247879283107708</v>
       </c>
       <c r="T7">
-        <v>0.0128863324902388</v>
+        <v>0.01247879283107709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N8">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q8">
-        <v>1752.231606366245</v>
+        <v>1779.592056385648</v>
       </c>
       <c r="R8">
-        <v>1752.231606366245</v>
+        <v>16016.32850747083</v>
       </c>
       <c r="S8">
-        <v>0.06713987000542894</v>
+        <v>0.06053148094696372</v>
       </c>
       <c r="T8">
-        <v>0.06713987000542894</v>
+        <v>0.06053148094696375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N9">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q9">
-        <v>441.2430231104149</v>
+        <v>477.0105412309416</v>
       </c>
       <c r="R9">
-        <v>441.2430231104149</v>
+        <v>4293.094871078475</v>
       </c>
       <c r="S9">
-        <v>0.01690701109647923</v>
+        <v>0.01622515361563538</v>
       </c>
       <c r="T9">
-        <v>0.01690701109647923</v>
+        <v>0.01622515361563539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N10">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q10">
-        <v>328.6771816409105</v>
+        <v>449.5326078490684</v>
       </c>
       <c r="R10">
-        <v>328.6771816409105</v>
+        <v>4045.793470641615</v>
       </c>
       <c r="S10">
-        <v>0.0125938507038373</v>
+        <v>0.01529051244604907</v>
       </c>
       <c r="T10">
-        <v>0.0125938507038373</v>
+        <v>0.01529051244604907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N11">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q11">
-        <v>3430.599804796537</v>
+        <v>3892.129705038746</v>
       </c>
       <c r="R11">
-        <v>3430.599804796537</v>
+        <v>35029.16734534872</v>
       </c>
       <c r="S11">
-        <v>0.1314495321839016</v>
+        <v>0.1323878549796186</v>
       </c>
       <c r="T11">
-        <v>0.1314495321839016</v>
+        <v>0.1323878549796186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H12">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N12">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q12">
-        <v>447.6547401293543</v>
+        <v>497.299672882801</v>
       </c>
       <c r="R12">
-        <v>447.6547401293543</v>
+        <v>4475.697055945208</v>
       </c>
       <c r="S12">
-        <v>0.01715268743606765</v>
+        <v>0.01691527311892722</v>
       </c>
       <c r="T12">
-        <v>0.01715268743606765</v>
+        <v>0.01691527311892722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H13">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N13">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q13">
-        <v>2332.353373806355</v>
+        <v>2412.275456570613</v>
       </c>
       <c r="R13">
-        <v>2332.353373806355</v>
+        <v>21710.47910913551</v>
       </c>
       <c r="S13">
-        <v>0.08936826716008435</v>
+        <v>0.08205172939173268</v>
       </c>
       <c r="T13">
-        <v>0.08936826716008435</v>
+        <v>0.08205172939173269</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N14">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q14">
-        <v>587.3279821463202</v>
+        <v>646.598088032545</v>
       </c>
       <c r="R14">
-        <v>587.3279821463202</v>
+        <v>5819.382792292904</v>
       </c>
       <c r="S14">
-        <v>0.02250451608599318</v>
+        <v>0.02199354605210904</v>
       </c>
       <c r="T14">
-        <v>0.02250451608599318</v>
+        <v>0.02199354605210904</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H15">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N15">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q15">
-        <v>437.4942962495062</v>
+        <v>609.351156042413</v>
       </c>
       <c r="R15">
-        <v>437.4942962495062</v>
+        <v>5484.160404381717</v>
       </c>
       <c r="S15">
-        <v>0.0167633719604125</v>
+        <v>0.02072661976638902</v>
       </c>
       <c r="T15">
-        <v>0.0167633719604125</v>
+        <v>0.02072661976638902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H16">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N16">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O16">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P16">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q16">
-        <v>4566.388940723291</v>
+        <v>5275.865852269099</v>
       </c>
       <c r="R16">
-        <v>4566.388940723291</v>
+        <v>47482.79267042189</v>
       </c>
       <c r="S16">
-        <v>0.1749693127098567</v>
+        <v>0.179454595883045</v>
       </c>
       <c r="T16">
-        <v>0.1749693127098567</v>
+        <v>0.179454595883045</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H17">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N17">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O17">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P17">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q17">
-        <v>296.2290324871794</v>
+        <v>341.3034151195937</v>
       </c>
       <c r="R17">
-        <v>296.2290324871794</v>
+        <v>3071.730736076343</v>
       </c>
       <c r="S17">
-        <v>0.01135054216620844</v>
+        <v>0.01160917812333069</v>
       </c>
       <c r="T17">
-        <v>0.01135054216620844</v>
+        <v>0.01160917812333069</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H18">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N18">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P18">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q18">
-        <v>1543.401021825927</v>
+        <v>1655.576901476787</v>
       </c>
       <c r="R18">
-        <v>1543.401021825927</v>
+        <v>14900.19211329108</v>
       </c>
       <c r="S18">
-        <v>0.05913815479366482</v>
+        <v>0.0563131990325418</v>
       </c>
       <c r="T18">
-        <v>0.05913815479366482</v>
+        <v>0.05631319903254182</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H19">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N19">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O19">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P19">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q19">
-        <v>388.6557748803855</v>
+        <v>443.7689137738816</v>
       </c>
       <c r="R19">
-        <v>388.6557748803855</v>
+        <v>3993.920223964935</v>
       </c>
       <c r="S19">
-        <v>0.01489203716422075</v>
+        <v>0.01509446474127066</v>
       </c>
       <c r="T19">
-        <v>0.01489203716422075</v>
+        <v>0.01509446474127066</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H20">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N20">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O20">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P20">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q20">
-        <v>289.5055060942767</v>
+        <v>418.2058463033844</v>
       </c>
       <c r="R20">
-        <v>289.5055060942767</v>
+        <v>3763.852616730459</v>
       </c>
       <c r="S20">
-        <v>0.01109291829596351</v>
+        <v>0.01422495629073337</v>
       </c>
       <c r="T20">
-        <v>0.01109291829596351</v>
+        <v>0.01422495629073337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H21">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N21">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O21">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P21">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q21">
-        <v>3021.741660726615</v>
+        <v>3620.897280414369</v>
       </c>
       <c r="R21">
-        <v>3021.741660726615</v>
+        <v>32588.07552372932</v>
       </c>
       <c r="S21">
-        <v>0.1157834053181488</v>
+        <v>0.1231620887235619</v>
       </c>
       <c r="T21">
-        <v>0.1157834053181488</v>
+        <v>0.1231620887235619</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H22">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N22">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O22">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P22">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q22">
-        <v>34.45708134838642</v>
+        <v>37.49187209781133</v>
       </c>
       <c r="R22">
-        <v>34.45708134838642</v>
+        <v>337.426848880302</v>
       </c>
       <c r="S22">
-        <v>0.001320284347167293</v>
+        <v>0.001275257738654947</v>
       </c>
       <c r="T22">
-        <v>0.001320284347167293</v>
+        <v>0.001275257738654947</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H23">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N23">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O23">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P23">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q23">
-        <v>179.5269495218715</v>
+        <v>181.8636283393435</v>
       </c>
       <c r="R23">
-        <v>179.5269495218715</v>
+        <v>1636.772655054092</v>
       </c>
       <c r="S23">
-        <v>0.006878894325143394</v>
+        <v>0.006185954086649995</v>
       </c>
       <c r="T23">
-        <v>0.006878894325143394</v>
+        <v>0.006185954086649997</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H24">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N24">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O24">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P24">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q24">
-        <v>45.20807275078008</v>
+        <v>48.74761464184333</v>
       </c>
       <c r="R24">
-        <v>45.20807275078008</v>
+        <v>438.7285317765899</v>
       </c>
       <c r="S24">
-        <v>0.001732227701324165</v>
+        <v>0.001658113327891379</v>
       </c>
       <c r="T24">
-        <v>0.001732227701324165</v>
+        <v>0.001658113327891379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H25">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N25">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O25">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P25">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q25">
-        <v>33.67500710696885</v>
+        <v>45.93953475288066</v>
       </c>
       <c r="R25">
-        <v>33.67500710696885</v>
+        <v>413.455812775926</v>
       </c>
       <c r="S25">
-        <v>0.001290317781838488</v>
+        <v>0.001562598609399368</v>
       </c>
       <c r="T25">
-        <v>0.001290317781838488</v>
+        <v>0.001562598609399368</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H26">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N26">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O26">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P26">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q26">
-        <v>351.486136734324</v>
+        <v>397.7522981099962</v>
       </c>
       <c r="R26">
-        <v>351.486136734324</v>
+        <v>3579.770682989965</v>
       </c>
       <c r="S26">
-        <v>0.01346781637958904</v>
+        <v>0.01352924428284745</v>
       </c>
       <c r="T26">
-        <v>0.01346781637958904</v>
+        <v>0.01352924428284746</v>
       </c>
     </row>
   </sheetData>
